--- a/daffodil/sub-projects/core/doc/test-progress.xlsx
+++ b/daffodil/sub-projects/core/doc/test-progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>Jira Issues Count</t>
+  </si>
+  <si>
+    <t>Conformance Tests - srcDebug</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>Other Junit tests - srcDebug</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Total Tests - srcDebug</t>
   </si>
 </sst>
 </file>
@@ -131,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -154,6 +169,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -541,11 +560,13 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="11" width="9.7109375"/>
-    <col min="12" max="13" width="11.5703125"/>
-    <col min="15" max="1019" width="11.5703125"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125"/>
+    <col min="18" max="1022" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="5" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,26 +600,35 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -637,28 +667,99 @@
         <f>I2-J2</f>
         <v>248</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7">
         <v>2252</v>
       </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
       <c r="P2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9">
+        <v>41117</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>356</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>356</v>
+      </c>
+      <c r="I3">
+        <v>410</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>410</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>108</v>
+      </c>
+      <c r="N3">
+        <v>110</v>
+      </c>
+      <c r="O3">
+        <v>2234</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -702,4 +803,105 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D82A129E61AB94CBD557DF296383A78" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8177165d1a918059be1ae03aa3b2f972">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/office/internal/2005/internalDocumentation" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type" ma:readOnly="true"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="lastPrinted" minOccurs="0" maxOccurs="1" type="xsd:dateTime"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3899020-FBD1-4312-AAE1-158EC345A741}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79472E49-20AD-4406-9757-2ADA8A146F63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427AB757-1D15-4EC5-AAB6-A11015DD151F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>